--- a/biology/Botanique/Tylophora/Tylophora.xlsx
+++ b/biology/Botanique/Tylophora/Tylophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tylophora R.Br. est un genre de plantes à fleurs de la famille des Apocynaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (24 janvier 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (24 janvier 2018) :
 Tylophora acutipetala Guillaumin
 Tylophora adnata Bakh. fil.
 Tylophora alata W. D. Stevens
@@ -702,12 +718,12 @@
 Tylophora woollsii Benth.
 Tylophora yunnanensis Schltr.
 Tylophora zeylanica Decne.
-Selon GRIN            (24 janvier 2018)[3] :
+Selon GRIN            (24 janvier 2018) :
 Tylophora indica (Burm. f.) Merr.
 Tylophora ovata (Lindl.) Hook. &amp; Steud.
-Selon ITIS      (24 janvier 2018)[4] :
+Selon ITIS      (24 janvier 2018) :
 Tylophora polyantha Volkens
-Selon NCBI  (24 janvier 2018)[5] :
+Selon NCBI  (24 janvier 2018) :
 Tylophora anomala
 Tylophora apiculata
 Tylophora arachnoidea
@@ -754,7 +770,7 @@
 Tylophora villosa
 Tylophora williamsii
 Tylophora yunnanensis
-Selon The Plant List            (24 janvier 2018)[6] :
+Selon The Plant List            (24 janvier 2018) :
 Tylophora anomala N.E.Br.
 Tylophora anthopotamica (Hand.-Mazz.) Tsiang &amp; H.D. Zhang
 Tylophora apiculata K. Schum.
@@ -843,7 +859,7 @@
 Tylophora velutina (R. Br.) G. Don
 Tylophora yunnanensis Schltr.
 Tylophora zenkeri Schltr.
-Selon Tropicos                                           (24 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Tylophora acutipetala Guillaumin
 Tylophora adalinae K. Schum.
 Tylophora adnata Bakh. f.
